--- a/MinMax/scripts/comparison/violations_comparison_table_118_100.xlsx
+++ b/MinMax/scripts/comparison/violations_comparison_table_118_100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Pg Vm Model False</t>
   </si>
@@ -31,22 +31,40 @@
     <t>Violation Metric</t>
   </si>
   <si>
-    <t>Pg Avg Violation</t>
-  </si>
-  <si>
-    <t>Pg Max Violation</t>
-  </si>
-  <si>
-    <t>Qg Avg Violation</t>
-  </si>
-  <si>
-    <t>Qg Max Violation</t>
-  </si>
-  <si>
-    <t>Vm Avg Violation</t>
-  </si>
-  <si>
-    <t>Vm Max Violation</t>
+    <t>Pg up Avg Violation</t>
+  </si>
+  <si>
+    <t>Pg up Max Violation</t>
+  </si>
+  <si>
+    <t>Pg down Avg Violation</t>
+  </si>
+  <si>
+    <t>Pg down Max Violation</t>
+  </si>
+  <si>
+    <t>Qg up Avg Violation</t>
+  </si>
+  <si>
+    <t>Qg up Max Violation</t>
+  </si>
+  <si>
+    <t>Qg down Avg Violation</t>
+  </si>
+  <si>
+    <t>Qg down Max Violation</t>
+  </si>
+  <si>
+    <t>Vm up Avg Violation</t>
+  </si>
+  <si>
+    <t>Vm up Max Violation</t>
+  </si>
+  <si>
+    <t>Vm down Avg Violation</t>
+  </si>
+  <si>
+    <t>Vm down Max Violation</t>
   </si>
   <si>
     <t>Ibr Avg Violation</t>
@@ -416,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,16 +496,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6.460986332967877E-05</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0001794837153283879</v>
       </c>
       <c r="D4">
-        <v>0.004053681623190641</v>
+        <v>0.009775315411388874</v>
       </c>
       <c r="E4">
-        <v>0.002465138677507639</v>
+        <v>0.009787281043827534</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,16 +513,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.01488589867949486</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.1024265214800835</v>
       </c>
       <c r="D5">
-        <v>0.4303729832172394</v>
+        <v>0.4259120225906372</v>
       </c>
       <c r="E5">
-        <v>0.5581697225570679</v>
+        <v>0.2000734806060791</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -512,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0001610807958059013</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001610869803698733</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.741498855764803E-07</v>
+        <v>0.004053681623190641</v>
       </c>
       <c r="E6">
-        <v>2.067854802589864E-05</v>
+        <v>0.002465138677507639</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01920199394226074</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01920586824417114</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004324555397033691</v>
+        <v>0.4303729832172394</v>
       </c>
       <c r="E7">
-        <v>0.01223862171173096</v>
+        <v>0.5581697225570679</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -546,16 +564,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.1711654365062714</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1711642146110535</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.002058504614979029</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002076153177767992</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,16 +581,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>8.231096267700195</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>8.231952667236328</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1476129293441772</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1197323873639107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -580,16 +598,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>6.320630931512637E-08</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6.146482684925767E-08</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2.002440429105544E-06</v>
+        <v>4.741498855764803E-07</v>
       </c>
       <c r="E10">
-        <v>1.988179615877243E-06</v>
+        <v>2.067854802589864E-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -597,15 +615,117 @@
         <v>14</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.004324555397033691</v>
+      </c>
+      <c r="E11">
+        <v>0.01223862171173096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.0001610807958059013</v>
+      </c>
+      <c r="C12">
+        <v>0.0001610869803698733</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.01920199394226074</v>
+      </c>
+      <c r="C13">
+        <v>0.01920586824417114</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.1711654365062714</v>
+      </c>
+      <c r="C14">
+        <v>0.1711642146110535</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>8.231096267700195</v>
+      </c>
+      <c r="C15">
+        <v>8.231952667236328</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>6.320630931512637E-08</v>
+      </c>
+      <c r="C16">
+        <v>6.146482684925767E-08</v>
+      </c>
+      <c r="D16">
+        <v>2.002440429105544E-06</v>
+      </c>
+      <c r="E16">
+        <v>1.988179615877243E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>3.659044569649694E-06</v>
       </c>
-      <c r="C11">
+      <c r="C17">
         <v>3.484903528631146E-06</v>
       </c>
-      <c r="D11">
+      <c r="D17">
         <v>5.395992146795605E-05</v>
       </c>
-      <c r="E11">
+      <c r="E17">
         <v>5.334658215079694E-05</v>
       </c>
     </row>

--- a/MinMax/scripts/comparison/violations_comparison_table_118_100.xlsx
+++ b/MinMax/scripts/comparison/violations_comparison_table_118_100.xlsx
@@ -28,7 +28,7 @@
     <t>Vr Vi Model True</t>
   </si>
   <si>
-    <t>Violation Metric</t>
+    <t>Violation Metric [pu]</t>
   </si>
   <si>
     <t>Pg up Avg Violation</t>
